--- a/data/login/login.xlsx
+++ b/data/login/login.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_fail" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="login_success" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>login.cgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.cgi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -512,12 +516,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
